--- a/reports/itemsDiscountsList.xlsx
+++ b/reports/itemsDiscountsList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>No.</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>Discount(Php)</t>
-  </si>
-  <si>
-    <t>Cloud 9</t>
-  </si>
-  <si>
-    <t>2024-04-23 16:54:55</t>
   </si>
 </sst>
 </file>
@@ -110,12 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -417,10 +408,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G2"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,7 +419,7 @@
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="25.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="18.71" bestFit="true" customWidth="true" style="0"/>
@@ -457,29 +448,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1040</v>
-      </c>
-      <c r="F2" s="2">
-        <v>936</v>
-      </c>
-      <c r="G2" s="2">
-        <v>104.0</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
